--- a/data/trans_camb/POLIPATOLOGIA_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_2-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,51</t>
+          <t>-1,51; 2,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,8</t>
+          <t>-0,95; 3,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 16,08</t>
+          <t>4,06; 15,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 5,82</t>
+          <t>-1,65; 5,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 5,17</t>
+          <t>-1,71; 5,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 19,27</t>
+          <t>5,56; 18,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,33</t>
+          <t>-0,8; 3,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,79</t>
+          <t>-0,56; 3,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,04; 14,72</t>
+          <t>6,18; 15,18</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 168,4</t>
+          <t>-46,2; 170,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,56; 234,11</t>
+          <t>-30,62; 233,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>121,22; 1026,55</t>
+          <t>125,81; 1063,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,55; 94,26</t>
+          <t>-18,27; 94,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 85,22</t>
+          <t>-17,79; 94,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,46; 306,35</t>
+          <t>59,16; 289,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 83,88</t>
+          <t>-13,38; 78,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 90,56</t>
+          <t>-10,56; 96,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>110,2; 347,7</t>
+          <t>106,2; 342,89</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,91</t>
+          <t>0,11; 5,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,29</t>
+          <t>-0,79; 4,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 11,12</t>
+          <t>3,33; 11,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 0,72</t>
+          <t>-7,03; 0,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,57</t>
+          <t>-6,73; 0,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 42,79</t>
+          <t>6,37; 45,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,1</t>
+          <t>-2,2; 1,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,04</t>
+          <t>-2,51; 2,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 34,33</t>
+          <t>6,87; 32,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 141,13</t>
+          <t>0,62; 156,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 127,53</t>
+          <t>-16,18; 129,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>57,71; 313,43</t>
+          <t>62,47; 330,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 4,8</t>
+          <t>-42,19; 7,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 13,06</t>
+          <t>-39,68; 7,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,46; 328,29</t>
+          <t>40,22; 353,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 26,68</t>
+          <t>-21,64; 23,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 25,41</t>
+          <t>-24,7; 26,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,15; 422,67</t>
+          <t>72,06; 378,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 3,95</t>
+          <t>-3,14; 3,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 3,06</t>
+          <t>-3,42; 3,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 9,41</t>
+          <t>1,27; 9,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 9,12</t>
+          <t>0,03; 9,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,86</t>
+          <t>-6,33; 1,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 11,53</t>
+          <t>0,5; 12,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 5,52</t>
+          <t>-0,07; 5,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,22</t>
+          <t>-4,03; 1,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 8,78</t>
+          <t>2,28; 9,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 48,02</t>
+          <t>-27,67; 45,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 37,38</t>
+          <t>-30,97; 41,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,45; 116,03</t>
+          <t>10,65; 119,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 54,71</t>
+          <t>-0,16; 57,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 11,4</t>
+          <t>-30,41; 12,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 68,9</t>
+          <t>3,49; 73,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 43,05</t>
+          <t>-0,38; 41,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 9,61</t>
+          <t>-25,98; 9,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,53; 69,04</t>
+          <t>14,14; 70,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,49</t>
+          <t>-3,67; 5,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,88</t>
+          <t>1,42; 10,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 16,24</t>
+          <t>-7,27; 16,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 9,49</t>
+          <t>-1,79; 9,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 7,79</t>
+          <t>-2,86; 8,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 18,02</t>
+          <t>4,95; 18,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 6,05</t>
+          <t>-1,23; 6,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 8,23</t>
+          <t>0,81; 7,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 15,55</t>
+          <t>-5,92; 15,07</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 42,38</t>
+          <t>-20,57; 39,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,65; 83,45</t>
+          <t>8,12; 81,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,53; 111,41</t>
+          <t>-38,83; 107,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 36,41</t>
+          <t>-5,52; 36,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 29,14</t>
+          <t>-8,95; 31,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,02; 68,43</t>
+          <t>15,5; 68,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 29,33</t>
+          <t>-5,07; 31,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,0; 40,19</t>
+          <t>3,2; 38,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 71,12</t>
+          <t>-23,89; 70,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 5,67</t>
+          <t>-7,94; 5,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 1,39</t>
+          <t>-11,85; 1,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 11,48</t>
+          <t>-1,38; 11,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,82; 16,34</t>
+          <t>2,19; 15,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 9,47</t>
+          <t>-3,61; 9,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 10,12</t>
+          <t>-1,78; 10,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 8,95</t>
+          <t>-0,89; 8,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 3,65</t>
+          <t>-5,87; 3,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 8,47</t>
+          <t>-0,11; 8,46</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 14,79</t>
+          <t>-17,51; 15,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 3,79</t>
+          <t>-26,47; 4,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 29,64</t>
+          <t>-3,01; 29,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,63; 34,43</t>
+          <t>4,11; 33,32</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 20,24</t>
+          <t>-6,43; 20,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 21,62</t>
+          <t>-3,09; 21,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 20,28</t>
+          <t>-1,76; 20,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 8,12</t>
+          <t>-11,94; 8,36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 19,18</t>
+          <t>-0,13; 19,04</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>11,45; 27,93</t>
+          <t>11,16; 27,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 12,01</t>
+          <t>-2,77; 12,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 11,92</t>
+          <t>-1,78; 11,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 11,07</t>
+          <t>-2,71; 10,72</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 4,65</t>
+          <t>-8,71; 4,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 24,06</t>
+          <t>-2,43; 24,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,41; 16,44</t>
+          <t>6,46; 17,41</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 5,62</t>
+          <t>-4,65; 5,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 23,36</t>
+          <t>0,1; 22,45</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>20,36; 60,29</t>
+          <t>19,71; 58,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 24,52</t>
+          <t>-4,88; 26,48</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 24,75</t>
+          <t>-3,09; 24,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 16,17</t>
+          <t>-3,52; 15,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 6,67</t>
+          <t>-11,64; 5,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 36,07</t>
+          <t>-3,3; 37,17</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,81; 27,08</t>
+          <t>9,9; 29,0</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 9,3</t>
+          <t>-7,07; 9,58</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 38,61</t>
+          <t>0,14; 36,82</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,69; 20,35</t>
+          <t>5,13; 21,22</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 13,09</t>
+          <t>-4,25; 12,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 13,91</t>
+          <t>-2,86; 12,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,87; 14,84</t>
+          <t>3,76; 15,18</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 6,9</t>
+          <t>-5,54; 7,47</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 8,18</t>
+          <t>-2,3; 8,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>5,56; 15,07</t>
+          <t>6,02; 15,14</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 6,93</t>
+          <t>-2,82; 7,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 7,8</t>
+          <t>-0,74; 8,08</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>6,57; 31,93</t>
+          <t>7,15; 32,97</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 20,62</t>
+          <t>-5,68; 18,89</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 21,68</t>
+          <t>-3,77; 19,89</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>4,76; 19,61</t>
+          <t>4,57; 19,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 8,9</t>
+          <t>-6,69; 9,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 10,56</t>
+          <t>-2,73; 10,59</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>7,27; 20,66</t>
+          <t>7,62; 20,81</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 9,29</t>
+          <t>-3,61; 9,77</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 10,47</t>
+          <t>-0,93; 11,08</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,59</t>
+          <t>2,52; 6,68</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,13</t>
+          <t>2,05; 6,16</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,52; 13,91</t>
+          <t>4,45; 13,78</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,43</t>
+          <t>2,9; 7,54</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,94</t>
+          <t>0,15; 4,86</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>11,44; 24,85</t>
+          <t>11,28; 25,1</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,49</t>
+          <t>3,25; 6,41</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,94</t>
+          <t>1,8; 4,84</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>9,43; 18,92</t>
+          <t>9,57; 19,1</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>10,63; 34,53</t>
+          <t>11,93; 35,01</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>9,23; 32,23</t>
+          <t>10,27; 32,93</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>17,59; 72,01</t>
+          <t>23,42; 71,63</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8,34; 23,05</t>
+          <t>8,1; 23,37</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,22; 15,09</t>
+          <t>0,5; 15,04</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>33,86; 73,98</t>
+          <t>32,79; 74,1</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>11,78; 24,8</t>
+          <t>11,51; 24,46</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>6,93; 19,13</t>
+          <t>6,54; 18,65</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>35,18; 72,2</t>
+          <t>35,07; 71,72</t>
         </is>
       </c>
     </row>
